--- a/public/cohort/fileExcel/xlsxUIT/OPEN/BECO_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/BECO_OPEN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -885,7 +885,7 @@
     <t>H</t>
   </si>
   <si>
-    <t xml:space="preserve">Lesbrief: FinanciÃ«le zelfredzaamheid. </t>
+    <t xml:space="preserve">Lesbrief: Financiële zelfredzaamheid. </t>
   </si>
   <si>
     <t>startJaar</t>
@@ -894,7 +894,7 @@
     <t>Lesbrieven: Financiele zelfredzaamheid. Bedrijf starten.</t>
   </si>
   <si>
-    <t>A, B1, B2, B3, B4, F1, F2</t>
+    <t>A, B1, B3, B4, F1, F2</t>
   </si>
   <si>
     <t>cid</t>
@@ -906,13 +906,19 @@
     <t>eindJaar</t>
   </si>
   <si>
-    <t>Lesbrieven: Marktverovering. Personeel en interne organisatie. Onderneem het zelf.</t>
+    <t>Lesbrieven: Marktverovering. Onderneem het zelf.</t>
   </si>
   <si>
-    <t>A, D1, D2, E1, E2, F1, F2</t>
+    <t>E en B2</t>
   </si>
   <si>
     <t>vandaag</t>
+  </si>
+  <si>
+    <t>Lesbrieven: Personeelsbeleid en interne organisatie. Bedrijf starten.</t>
+  </si>
+  <si>
+    <t>C en F1</t>
   </si>
   <si>
     <t>huidigStartjaar</t>
@@ -930,22 +936,37 @@
     <t>mavo?</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
+    <t>A, B1, B2, B3, B4, F1, F2</t>
+  </si>
+  <si>
+    <t>Lesbrieven: Marktverovering. Personeel en interne organisatie. Onderneem het zelf.</t>
+  </si>
+  <si>
+    <t>A, D1, D2, E1, E2, F1, F2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lesbrieven: Bedrijf starten. Financiering en verslaggeving. </t>
   </si>
   <si>
     <t>B1, B2, B3, B4, F1, F2, G</t>
   </si>
   <si>
-    <t>Lesbrieven: Financiering en verslaggeving. Rekenwonder. Investeren.</t>
+    <t>Lesbrieven: Financiering en verslaggeving. Investeren.</t>
   </si>
   <si>
     <t>D1, D2, F1, F2, G</t>
   </si>
   <si>
-    <t xml:space="preserve">Lesbrieven: Het resultaat. FinanciÃ«le zelfredzaamheid. Onderneem het zelf (hoofdstuk 3). Markverovering. Financiering en verslaggeving.  </t>
+    <t xml:space="preserve">Lesbrieven: Het resultaat. Financiële zelfredzaamheid. Onderneem het zelf (hoofdstuk 3). Markverovering. Financiering en verslaggeving.  </t>
   </si>
   <si>
     <t>A, B, C, D, E, F, G</t>
+  </si>
+  <si>
+    <t>Lesbrieven: Financiering en verslaggeving. Rekenwonder. Investeren.</t>
   </si>
   <si>
     <t>A</t>
@@ -960,22 +981,22 @@
     <t>Lesbrief Bedrijf starten</t>
   </si>
   <si>
+    <t>Lesbrief Onderneem het zelf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lesbrief Bedrijf starten </t>
   </si>
   <si>
-    <t>Lesbrief FinanciÃ«le zelfredzaamheid en Onderneem het zelf</t>
+    <t>Lesbrief Financiële zelfredzaamheid en Onderneem het zelf</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>Lesbrieven Bedrijf starten en personeelsbeleid en Interne organisatie</t>
+    <t>Lesbrieven Bedrijf starten en Personeelsbeleid &amp; Interne organisatie</t>
   </si>
   <si>
     <t>B, C</t>
-  </si>
-  <si>
-    <t>Lesbrief Circulaire economie</t>
   </si>
   <si>
     <t>Lesbrief Marktverovering en Investeren</t>
@@ -984,16 +1005,31 @@
     <t>D, E</t>
   </si>
   <si>
-    <t>Domein A: vaardigheden komen in elke schriftelijke toets terug</t>
+    <t>Circulaire economie</t>
   </si>
   <si>
     <t>Lesbrief Financiering en verslaggeving</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Lesbrieven Bedrijf starten en personeelsbeleid en Interne organisatie</t>
+  </si>
+  <si>
+    <t>Lesbrief Circulaire economie</t>
+  </si>
+  <si>
+    <t>Domein A: vaardigheden komen in elke schriftelijke toets terug</t>
   </si>
   <si>
     <t>D, F, G</t>
   </si>
   <si>
     <t>Lesbrief Het Resultaat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesbrieven: .... </t>
   </si>
   <si>
     <t>Alle Lesbrieven + keuzeonderwerp: Circulaire economie</t>
@@ -2399,7 +2435,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2444,7 +2480,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -2460,7 +2496,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -2494,10 +2530,10 @@
         <v>8</v>
       </c>
       <c r="N7" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
         <v>66</v>
@@ -2674,7 +2710,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>70</v>
@@ -2693,10 +2729,10 @@
         <v>8</v>
       </c>
       <c r="N9" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
         <v>71</v>
@@ -2768,28 +2804,38 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602361111</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44385.633425926</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1110</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="45"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="45">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="45"/>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="46">
+        <v>2</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>74</v>
+      </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2808,7 +2854,7 @@
       </c>
       <c r="V10" s="7">
         <f>IF(OR(AND($L10&lt;&gt;"",OR($J10=instellingen!$H$5,$J10=instellingen!$H$6,,$J10=instellingen!$H$7)),AND(ISBLANK($L10),OR($J10=instellingen!$H$3,$J10=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="7">
         <f>IF(ISBLANK($M10),1,0)</f>
@@ -2848,12 +2894,12 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2942,7 +2988,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2965,7 +3011,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3004,7 +3050,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3034,7 +3080,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4504,7 +4550,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -4677,7 +4723,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4722,7 +4768,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -4738,7 +4784,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -4775,10 +4821,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -4955,7 +5001,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -4974,10 +5020,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -5046,7 +5092,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602361111</v>
+        <v>44385.633425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5131,7 +5177,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5220,7 +5266,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5243,7 +5289,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5282,7 +5328,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5312,7 +5358,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5418,7 +5464,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -5437,10 +5483,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5512,7 +5558,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -5531,10 +5577,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5606,7 +5652,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -5625,10 +5671,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -7318,7 +7364,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602361111</v>
+        <v>44385.633425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7403,7 +7449,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7492,7 +7538,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7515,7 +7561,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7554,7 +7600,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7584,7 +7630,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7690,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -7709,10 +7755,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7784,7 +7830,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -7803,10 +7849,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7878,7 +7924,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -7897,10 +7943,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -9090,7 +9136,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -9236,7 +9282,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2">
         <v>1051</v>
@@ -9246,7 +9292,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -9263,7 +9309,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9308,7 +9354,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -9324,7 +9370,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -9342,7 +9388,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -9359,7 +9405,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9404,7 +9450,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -9420,7 +9466,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -9438,7 +9484,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -9455,7 +9501,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9500,7 +9546,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -9516,7 +9562,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -9532,27 +9578,25 @@
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I9" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="45">
-        <v>100</v>
-      </c>
+      <c r="L9" s="45"/>
       <c r="M9" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9597,7 +9641,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -9613,7 +9657,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -9622,22 +9666,30 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602361111</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44385.633425926</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1111</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="45"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="45">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="45"/>
+      <c r="L10" s="45">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
@@ -9707,7 +9759,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9796,7 +9848,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9819,7 +9871,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9858,7 +9910,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9888,7 +9940,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11360,7 +11412,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -11506,7 +11558,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2">
         <v>472</v>
@@ -11516,7 +11568,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11533,7 +11585,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11578,7 +11630,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -11594,7 +11646,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -11612,7 +11664,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11629,7 +11681,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11674,7 +11726,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -11690,7 +11742,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -11708,7 +11760,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -11725,7 +11777,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11770,7 +11822,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -11786,7 +11838,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -11805,7 +11857,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11822,7 +11874,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11867,7 +11919,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -11883,7 +11935,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -11892,7 +11944,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602372685</v>
+        <v>44385.633425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11977,7 +12029,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12066,7 +12118,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12089,7 +12141,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12128,7 +12180,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -12158,7 +12210,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12264,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -12283,10 +12335,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -12355,10 +12407,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -12377,10 +12429,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -12449,10 +12501,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -12471,10 +12523,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -12543,21 +12595,19 @@
       </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I21" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="45">
-        <v>100</v>
-      </c>
+      <c r="L21" s="45"/>
       <c r="M21" s="27" t="s">
         <v>8</v>
       </c>
@@ -12568,7 +12618,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -12632,26 +12682,38 @@
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>1112</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="45"/>
+      <c r="G22" s="27">
+        <v>4</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="45">
+        <v>2</v>
+      </c>
       <c r="J22" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="45"/>
+      <c r="L22" s="45">
+        <v>100</v>
+      </c>
       <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="46">
+        <v>2</v>
+      </c>
       <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>105</v>
+      </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -13824,7 +13886,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -14178,7 +14240,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602372685</v>
+        <v>44385.633425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14263,7 +14325,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14352,7 +14414,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14375,7 +14437,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14414,7 +14476,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14444,7 +14506,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14550,7 +14612,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -14569,10 +14631,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14644,7 +14706,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -14663,10 +14725,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14738,7 +14800,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -14757,7 +14819,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>62</v>
@@ -14832,7 +14894,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -14851,10 +14913,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -15131,7 +15193,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15255,7 +15317,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -15272,10 +15334,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15347,7 +15409,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -15364,10 +15426,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15439,7 +15501,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -15456,10 +15518,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -16142,7 +16204,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16496,7 +16558,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602372685</v>
+        <v>44385.633425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16581,7 +16643,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16670,7 +16732,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16693,7 +16755,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16732,7 +16794,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16762,7 +16824,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17523,7 +17585,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -17540,10 +17602,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -17615,7 +17677,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -17632,10 +17694,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -17707,7 +17769,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -17724,10 +17786,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/BECO_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/BECO_OPEN.xlsx
@@ -888,6 +888,9 @@
     <t xml:space="preserve">Lesbrief: Financiële zelfredzaamheid. </t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
@@ -934,9 +937,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t>A, B1, B2, B3, B4, F1, F2</t>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2501,7 +2501,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -2536,7 +2536,7 @@
         <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>251</v>
@@ -2614,7 +2614,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2713,7 +2713,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -2735,7 +2735,7 @@
         <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -2800,11 +2800,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633425926</v>
+        <v>44387.766168981</v>
       </c>
       <c r="D10" s="2">
         <v>1110</v>
@@ -2814,7 +2814,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -2834,7 +2834,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4789,7 +4789,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4802,7 +4802,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>140</v>
@@ -4902,7 +4902,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5088,11 +5088,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633425926</v>
+        <v>44387.766168981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>141</v>
@@ -7271,7 +7271,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7360,11 +7360,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633425926</v>
+        <v>44387.766168981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7449,7 +7449,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7561,7 +7561,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7600,7 +7600,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9375,7 +9375,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9471,7 +9471,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>252</v>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9567,7 +9567,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9596,7 +9596,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9662,11 +9662,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633425926</v>
+        <v>44387.766168981</v>
       </c>
       <c r="D10" s="2">
         <v>1111</v>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -9759,7 +9759,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9848,7 +9848,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9910,7 +9910,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11585,7 +11585,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11651,7 +11651,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11747,7 +11747,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>142</v>
@@ -11777,7 +11777,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11843,7 +11843,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11874,7 +11874,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11940,11 +11940,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633425926</v>
+        <v>44387.766168981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -12029,7 +12029,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12118,7 +12118,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12141,7 +12141,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12180,7 +12180,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -12210,7 +12210,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -13971,7 +13971,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -14059,7 +14059,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>143</v>
@@ -14147,7 +14147,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14236,11 +14236,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633425926</v>
+        <v>44387.766168981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14325,7 +14325,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14414,7 +14414,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14437,7 +14437,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14476,7 +14476,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14506,7 +14506,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -16289,7 +16289,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16377,7 +16377,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>144</v>
@@ -16465,7 +16465,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16554,11 +16554,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633425926</v>
+        <v>44387.766168981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16643,7 +16643,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16732,7 +16732,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16755,7 +16755,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16794,7 +16794,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16824,7 +16824,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
